--- a/medicine/Enfance/Jean-Marc_Mathis/Jean-Marc_Mathis.xlsx
+++ b/medicine/Enfance/Jean-Marc_Mathis/Jean-Marc_Mathis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Marc Mathis, dit Mathis, est un auteur de bande dessinée, illustrateur et auteur jeunesse français né le 21 août 1965 à Mont-de-Marsan.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marc Mathis est né le 1er août 1965 à Mont-de-Marsan d'un père maçon et grandit en Alsace[1]. Il étudie d'abord le dessin industriel mais il change d'orientation et il passe par l'école des images d'Épinal et les Beaux-Arts de Nancy[2] en section communication, où il rencontre Thierry Martin en 1989[3]. 
-Il devient ensuite illustrateur et auteur de bandes dessinées pour diverses revues et journaux[4]. En parallèle de ses activités d'illustration, il fait ses débuts dans le Psikopat en mai 1992 puis dans (À suivre)[5]. En 1997, il publie son premier album : Hey, vous avez pas vu le Père Noël ?  aux éditions Paquet, un conte « assez classique »[6]. La même année, l'éditeur collecte des narrations parues dans (À suivre) entre 1993 et 1996 et publie Henri, chienne de vie[7]. Mathis s'associe avec Dylan Pelot pour livrer Victor qui pète[8].
-Depuis 2002, ses travaux s'orientent vers les livres jeunesse et sa principale source d'inspiration est sa propre enfance[4]. Il est l'auteur de la série Boris aux Éditions Thierry Magnier[9]. Il s'associe plusieurs fois avec Thierry Martin, notamment pour une adaptation en bande du Roman de Renart aux éditions Delcourt[3] et Vincent, mon frère mort-vivant en 2005[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marc Mathis est né le 1er août 1965 à Mont-de-Marsan d'un père maçon et grandit en Alsace. Il étudie d'abord le dessin industriel mais il change d'orientation et il passe par l'école des images d'Épinal et les Beaux-Arts de Nancy en section communication, où il rencontre Thierry Martin en 1989. 
+Il devient ensuite illustrateur et auteur de bandes dessinées pour diverses revues et journaux. En parallèle de ses activités d'illustration, il fait ses débuts dans le Psikopat en mai 1992 puis dans (À suivre). En 1997, il publie son premier album : Hey, vous avez pas vu le Père Noël ?  aux éditions Paquet, un conte « assez classique ». La même année, l'éditeur collecte des narrations parues dans (À suivre) entre 1993 et 1996 et publie Henri, chienne de vie. Mathis s'associe avec Dylan Pelot pour livrer Victor qui pète.
+Depuis 2002, ses travaux s'orientent vers les livres jeunesse et sa principale source d'inspiration est sa propre enfance. Il est l'auteur de la série Boris aux Éditions Thierry Magnier. Il s'associe plusieurs fois avec Thierry Martin, notamment pour une adaptation en bande du Roman de Renart aux éditions Delcourt et Vincent, mon frère mort-vivant en 2005.
 </t>
         </is>
       </c>
@@ -546,12 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans et albums jeunesse
-Hey, vous avez pas vu le Père Noël ? , éditions Paquet, 1997.
-Henri chienne de vie !, éditions Paquet, 1998[11].
+          <t>Romans et albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hey, vous avez pas vu le Père Noël ? , éditions Paquet, 1997.
+Henri chienne de vie !, éditions Paquet, 1998.
 Le chien qui souriait à l'envers, texte de Mathis, illustré par Dylan Pelot, Pocket jeunesse, 1998.
 Claude Zilla, texte de Mathis, illustré par Dylan Pelot, Pocket jeunesse, 1998.
-Le Roman de Youki, éditions Paquet, 1998 - roman graphique[12].
+Le Roman de Youki, éditions Paquet, 1998 - roman graphique.
 Le retour de Victor qui pète, Éditions Paquet, 1999.
 Romain Desbois, prince des menteurs, éd. Thierry Magnier, roman jeunesse, 2003.
 Cinq, six bonheurs, éd. Thierry Magnier, roman jeunesse, 2004 (prix Sorcières 2006, catégorie premières lectures).
@@ -582,16 +601,125 @@
 Le Rire de Camille ; où l'on découvre qu'il n'y a pas de petits chagrins, texte de Mathis, illustré par Émilie Harel, éd. Oskar, 2012.
 Chacun sa cabane, éd. Thierry Magnier, collection « Petite Poche », roman jeunesse, 2013.
 La chasse aux papas, éd. Thierry Magnier, collection « Petite Poche », roman jeunesse, 2014.
-La Gelée d'été, éd. Thierry Magnier, roman jeunesse, 2015.
-Nouvelles jeunesse
-Recueils
-Faire et défaire, éd. Thierry Magnier, collection « Nouvelles », 2007. Recueil de nouvelles, public adolescent.
-Les Fils de l'ogre, éd. Thierry Magnier, collection « Nouvelles », 2012, 128 p.  (ISBN 978-2-36474-072-3). Recueil de 12 nouvelles, public adolescent.
-Recueils collectifs
-Collectif, Nouvelles re-vertes, éd. Thierry Magnier, 2008 ; recueil de 12 nouvelles, par 12 auteurs : écriture d'une nouvelle, aux côtés de Mickaël Ollivier, Christophe Léon et al.
-Collectif, Comme chiens et chats, éd. Thierry Magnier, 2011 ; recueil de 9 nouvelles, par 9 auteurs : écriture d'une nouvelle, aux côtés de Mickaël Ollivier et al.
-Séries jeunesse
-Boris, éd. Thierry Magnier : plus de 25 albums, depuis 2010, série en cours.
+La Gelée d'été, éd. Thierry Magnier, roman jeunesse, 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Marc_Mathis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Marc_Mathis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Recueils</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Faire et défaire, éd. Thierry Magnier, collection « Nouvelles », 2007. Recueil de nouvelles, public adolescent.
+Les Fils de l'ogre, éd. Thierry Magnier, collection « Nouvelles », 2012, 128 p.  (ISBN 978-2-36474-072-3). Recueil de 12 nouvelles, public adolescent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Marc_Mathis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Marc_Mathis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Recueils collectifs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Collectif, Nouvelles re-vertes, éd. Thierry Magnier, 2008 ; recueil de 12 nouvelles, par 12 auteurs : écriture d'une nouvelle, aux côtés de Mickaël Ollivier, Christophe Léon et al.
+Collectif, Comme chiens et chats, éd. Thierry Magnier, 2011 ; recueil de 9 nouvelles, par 9 auteurs : écriture d'une nouvelle, aux côtés de Mickaël Ollivier et al.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Marc_Mathis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Marc_Mathis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séries jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Boris, éd. Thierry Magnier : plus de 25 albums, depuis 2010, série en cours.
 Dolorès Wilson , illustrée par Aurore Petit, éd. Les Fourmis Rouges : cinq albums, série en cours :
 Panique au Mini-Market, 2014 ;
 Hypnose au château, 2014 ;
@@ -601,36 +729,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jean-Marc_Mathis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Marc_Mathis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Sorcières 2006, catégorie premières lectures, pour Cinq, six bonheurs, éditions Thierry Magnier[13].
-Prix des Incorruptibles 2006, catégorie maternelle, pour Du bruit sous le lit[13], éditions Thierry Magnier.
-Prix Tam-Tam 2007, dans la catégorie roman J’aime lire, pour La Glu[13], éditions Thierry Magnier.
-Prix littéraire de la Fontaine d'Ouche 2016[14] pour Cinq, six bonheurs, éditions Thierry Magnier.</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Sorcières 2006, catégorie premières lectures, pour Cinq, six bonheurs, éditions Thierry Magnier.
+Prix des Incorruptibles 2006, catégorie maternelle, pour Du bruit sous le lit, éditions Thierry Magnier.
+Prix Tam-Tam 2007, dans la catégorie roman J’aime lire, pour La Glu, éditions Thierry Magnier.
+Prix littéraire de la Fontaine d'Ouche 2016 pour Cinq, six bonheurs, éditions Thierry Magnier.</t>
         </is>
       </c>
     </row>
